--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:11:06+00:00</t>
+    <t>2022-09-30T12:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,107 +256,107 @@
 </t>
   </si>
   <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Address.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Address.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
   </si>
   <si>
     <t>XAD.7</t>
@@ -1164,13 +1164,13 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>27</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1192,25 +1192,25 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1261,13 +1261,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1279,7 +1279,7 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>73</v>
@@ -1290,11 +1290,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1313,16 +1313,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1360,19 +1360,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1384,13 +1384,13 @@
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>73</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1412,31 +1412,31 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s" s="2">
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" t="s" s="2">
         <v>73</v>
@@ -1449,26 +1449,26 @@
         <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="T5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s" s="2">
+      <c r="X5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X5" t="s" s="2">
+      <c r="Y5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y5" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
@@ -1485,19 +1485,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>112</v>
@@ -1525,7 +1525,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1534,10 +1534,10 @@
         <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>116</v>
@@ -1572,7 +1572,7 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>120</v>
@@ -1602,13 +1602,13 @@
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>122</v>
@@ -1636,19 +1636,19 @@
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>125</v>
@@ -1715,13 +1715,13 @@
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>130</v>
@@ -1758,10 +1758,10 @@
         <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>134</v>
@@ -1830,7 +1830,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>137</v>
@@ -1858,19 +1858,19 @@
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>143</v>
@@ -1933,13 +1933,13 @@
         <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>146</v>
@@ -1967,19 +1967,19 @@
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>152</v>
@@ -2044,13 +2044,13 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>156</v>
@@ -2078,19 +2078,19 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>160</v>
@@ -2153,13 +2153,13 @@
         <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>162</v>
@@ -2187,19 +2187,19 @@
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>168</v>
@@ -2262,13 +2262,13 @@
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>171</v>
@@ -2296,19 +2296,19 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>176</v>
@@ -2373,13 +2373,13 @@
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>179</v>
@@ -2407,7 +2407,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2416,7 +2416,7 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>184</v>
@@ -2484,13 +2484,13 @@
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>189</v>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T01:19:25+00:00</t>
+    <t>2022-12-30T12:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -899,7 +902,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -909,44 +912,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="59.8515625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="39.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="34.2578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="27.0546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.2578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="27.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1067,36 +1070,39 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>77</v>
@@ -1104,107 +1110,110 @@
       <c r="M2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>73</v>
+      <c r="AN2" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>85</v>
@@ -1212,108 +1221,111 @@
       <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>92</v>
@@ -1324,104 +1336,107 @@
       <c r="M4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>102</v>
@@ -1439,29 +1454,29 @@
         <v>106</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>109</v>
@@ -1470,34 +1485,34 @@
         <v>110</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>112</v>
@@ -1509,38 +1524,41 @@
         <v>114</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>117</v>
@@ -1548,110 +1566,113 @@
       <c r="M6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
         <v>121</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>126</v>
@@ -1663,177 +1684,180 @@
         <v>128</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>138</v>
@@ -1844,105 +1868,108 @@
       <c r="AM8" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="AN8" t="s" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>147</v>
@@ -1953,36 +1980,39 @@
       <c r="AM9" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="AN9" t="s" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B10" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>153</v>
@@ -1990,179 +2020,182 @@
       <c r="M10" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N10" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B11" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>163</v>
@@ -2173,105 +2206,108 @@
       <c r="AM11" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="AN11" t="s" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>172</v>
@@ -2282,36 +2318,39 @@
       <c r="AM12" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="AN12" t="s" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>177</v>
@@ -2319,70 +2358,70 @@
       <c r="M13" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>180</v>
@@ -2393,33 +2432,36 @@
       <c r="AM13" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="AN13" t="s" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>185</v>
@@ -2427,73 +2469,73 @@
       <c r="L14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>187</v>
       </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>190</v>
@@ -2502,7 +2544,10 @@
         <v>191</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
@@ -1102,16 +1106,16 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1170,16 +1174,16 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1190,10 +1194,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1204,7 +1208,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1216,13 +1220,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1273,13 +1277,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1291,7 +1295,7 @@
         <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>74</v>
@@ -1302,14 +1306,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1328,16 +1332,16 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1375,19 +1379,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1399,13 +1403,13 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>74</v>
@@ -1416,10 +1420,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1430,31 +1434,31 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -1467,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>74</v>
@@ -1479,13 +1483,13 @@
         <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>74</v>
@@ -1503,28 +1507,28 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>74</v>
@@ -1532,10 +1536,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1546,7 +1550,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1555,19 +1559,19 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1581,7 +1585,7 @@
         <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>74</v>
@@ -1593,13 +1597,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1617,39 +1621,39 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1660,7 +1664,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1669,22 +1673,22 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>74</v>
@@ -1697,7 +1701,7 @@
         <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U7" t="s" s="2">
         <v>74</v>
@@ -1733,39 +1737,39 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1785,16 +1789,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1809,7 +1813,7 @@
         <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>74</v>
@@ -1845,7 +1849,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1857,38 +1861,38 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1897,16 +1901,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1921,7 +1925,7 @@
         <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>74</v>
@@ -1957,50 +1961,50 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -2009,19 +2013,19 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2035,7 +2039,7 @@
         <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>74</v>
@@ -2071,25 +2075,25 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2100,21 +2104,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2123,16 +2127,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2183,50 +2187,50 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2235,16 +2239,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2259,7 +2263,7 @@
         <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>74</v>
@@ -2295,39 +2299,39 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2338,7 +2342,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2347,19 +2351,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2409,39 +2413,39 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2452,7 +2456,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2461,20 +2465,20 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2487,7 +2491,7 @@
         <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>74</v>
@@ -2523,28 +2527,28 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-address</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-address</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,13 +256,17 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -362,10 +366,6 @@
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>XAD.7</t>
   </si>
   <si>
@@ -384,7 +384,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -733,10 +733,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1177,13 +1177,13 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1208,7 +1208,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1220,13 +1220,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1277,13 +1277,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1295,7 +1295,7 @@
         <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>74</v>
@@ -1306,14 +1306,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1332,16 +1332,16 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1379,19 +1379,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1403,13 +1403,13 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>74</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1434,31 +1434,31 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -1471,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>74</v>
@@ -1483,13 +1483,13 @@
         <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>74</v>
@@ -1507,19 +1507,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>114</v>
@@ -1550,7 +1550,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1559,10 +1559,10 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>118</v>
@@ -1597,7 +1597,7 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
         <v>122</v>
@@ -1627,13 +1627,13 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>124</v>
@@ -1664,7 +1664,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1673,10 +1673,10 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>127</v>
@@ -1743,13 +1743,13 @@
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>132</v>
@@ -1789,10 +1789,10 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>136</v>
@@ -1861,7 +1861,7 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>139</v>
@@ -1892,7 +1892,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1901,10 +1901,10 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>145</v>
@@ -1967,13 +1967,13 @@
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>148</v>
@@ -2004,7 +2004,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -2013,10 +2013,10 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>154</v>
@@ -2081,13 +2081,13 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>158</v>
@@ -2118,7 +2118,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2127,10 +2127,10 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>162</v>
@@ -2193,13 +2193,13 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>164</v>
@@ -2230,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2239,10 +2239,10 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>170</v>
@@ -2305,13 +2305,13 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>173</v>
@@ -2342,7 +2342,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2351,10 +2351,10 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>178</v>
@@ -2419,13 +2419,13 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>181</v>
@@ -2456,7 +2456,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2465,7 +2465,7 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>186</v>
@@ -2533,13 +2533,13 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>191</v>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="195">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T16:41:46+00:00</t>
+    <t>2024-12-11T17:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -235,9 +241,6 @@
   </si>
   <si>
     <t>Mapping: vCard Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -256,7 +259,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -384,7 +387,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -745,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -843,21 +846,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -897,6 +900,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -958,1600 +969,1600 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-address.xlsx
+++ b/StructureDefinition-omrs-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
